--- a/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
+++ b/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,34 +22,55 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>519702</t>
+  </si>
+  <si>
+    <t>005802</t>
+  </si>
+  <si>
+    <t>398011</t>
+  </si>
+  <si>
+    <t>001279</t>
+  </si>
+  <si>
+    <t>001574</t>
+  </si>
+  <si>
     <t>006700</t>
   </si>
   <si>
     <t>006701</t>
   </si>
   <si>
-    <t>005802</t>
-  </si>
-  <si>
-    <t>398011</t>
-  </si>
-  <si>
-    <t>001279</t>
-  </si>
-  <si>
-    <t>001574</t>
-  </si>
-  <si>
-    <t>519702</t>
+    <t>交银趋势优先混合</t>
+  </si>
+  <si>
+    <t>汇添富智能制造股票</t>
+  </si>
+  <si>
+    <t>中海分红增利混合</t>
+  </si>
+  <si>
+    <t>中海积极增利灵活配置混合</t>
+  </si>
+  <si>
+    <t>中海混改红利主题精选灵活配置混合</t>
   </si>
   <si>
     <t>红土创新稳健混合A</t>
@@ -58,55 +79,82 @@
     <t>红土创新稳健混合C</t>
   </si>
   <si>
-    <t>汇添富智能制造股票</t>
-  </si>
-  <si>
-    <t>中海分红增利混合</t>
-  </si>
-  <si>
-    <t>中海积极增利灵活配置混合</t>
-  </si>
-  <si>
-    <t>中海混改红利主题精选灵活配置混合</t>
-  </si>
-  <si>
-    <t>交银趋势优先混合</t>
+    <t>15.44</t>
+  </si>
+  <si>
+    <t>8.92</t>
+  </si>
+  <si>
+    <t>5.16</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>82.24</t>
+  </si>
+  <si>
+    <t>92.09</t>
+  </si>
+  <si>
+    <t>90.16</t>
+  </si>
+  <si>
+    <t>68.84</t>
+  </si>
+  <si>
+    <t>89.89</t>
   </si>
   <si>
     <t>23.40</t>
   </si>
   <si>
-    <t>92.09</t>
-  </si>
-  <si>
-    <t>90.16</t>
-  </si>
-  <si>
-    <t>68.84</t>
-  </si>
-  <si>
-    <t>89.89</t>
-  </si>
-  <si>
-    <t>82.24</t>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>3.81</t>
   </si>
   <si>
     <t>0.21</t>
   </si>
   <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>3.82</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>3.81</t>
-  </si>
-  <si>
-    <t>3.09</t>
+    <t>0.4771</t>
+  </si>
+  <si>
+    <t>0.3613</t>
+  </si>
+  <si>
+    <t>0.1971</t>
+  </si>
+  <si>
+    <t>0.0168</t>
+  </si>
+  <si>
+    <t>0.0053</t>
+  </si>
+  <si>
+    <t>0.0010</t>
+  </si>
+  <si>
+    <t>0.0004</t>
   </si>
 </sst>
 </file>
@@ -464,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,145 +534,193 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
+++ b/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
+++ b/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
+++ b/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
@@ -1473,12 +1473,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
+++ b/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.03</v>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1520,13 +1585,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
+++ b/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.03</v>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1908,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
+++ b/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,323 +455,855 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4771</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005802</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富智能制造股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3613</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>398011</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中海分红增利混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1971</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001279</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中海积极增利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>68.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.03</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001574</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中海混改红利主题精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>23.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23.40</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
+      <c r="D6" t="n">
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1283,373 +1815,203 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>398011</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>中海分红增利混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2110</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002213</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中海顺鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0593</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003501</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.46</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.1971</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1215</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004845</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南华瑞盈混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0777</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010613</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融产业趋势一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010614</t>
+          <t>001279</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合C</t>
+          <t>中海积极增利灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>68.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1657,482 +2019,120 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>001574</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>中海混改红利主题精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004846</t>
+          <t>006700</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南华瑞盈混合C</t>
+          <t>红土创新稳健混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>23.40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001208</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2616</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008866</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时产业新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2268</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1468</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010349</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0627</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>320020</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安策略精选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008867</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时产业新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>72.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
+++ b/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.74</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.03</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001208</t>
+          <t>006039</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票A</t>
+          <t>国富估值优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.20</t>
+          <t>81.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2616</t>
+          <t>0.1808</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008866</t>
+          <t>014339</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时产业新趋势灵活配置混合A</t>
+          <t>长江智能制造混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.86</t>
+          <t>75.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2268</t>
+          <t>0.0782</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -698,150 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>014340</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>长江智能制造混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.61</t>
+          <t>75.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1468</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010349</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0627</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>320020</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安策略精选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008867</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时产业新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>72.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -906,36 +809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>001208</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>诺安低碳经济股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.99</t>
+          <t>80.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1215</t>
+          <t>0.2616</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -944,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004845</t>
+          <t>008866</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南华瑞盈混合A</t>
+          <t>博时产业新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>72.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0777</t>
+          <t>0.2268</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -982,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010613</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合A</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>78.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0270</t>
+          <t>0.1468</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1020,36 +923,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010614</t>
+          <t>010349</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合C</t>
+          <t>诺安低碳经济股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>80.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0627</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1058,36 +961,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>320020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>诺安策略精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>80.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1096,36 +999,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004846</t>
+          <t>008867</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南华瑞盈混合C</t>
+          <t>博时产业新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>72.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1134,6 +1037,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1303,7 +1490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1815,7 +2002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
+++ b/数据整理/stocks/A股/科创板/688308-欧科亿.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.26</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.03</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -583,6 +600,820 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015963</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015635</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015964</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014668</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016380</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015636</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014669</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016381</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016463</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -745,290 +1576,6 @@
       </c>
       <c r="H4" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001208</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2616</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008866</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时产业新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2268</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1468</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010349</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0627</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>320020</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安策略精选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008867</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时产业新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>72.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1093,36 +1640,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>001208</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>诺安低碳经济股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.99</t>
+          <t>80.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1215</t>
+          <t>0.2616</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1131,36 +1678,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004845</t>
+          <t>008866</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南华瑞盈混合A</t>
+          <t>博时产业新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>72.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0777</t>
+          <t>0.2268</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1169,36 +1716,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010613</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合A</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>78.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0270</t>
+          <t>0.1468</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1207,36 +1754,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010614</t>
+          <t>010349</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合C</t>
+          <t>诺安低碳经济股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.17</t>
+          <t>80.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0627</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1245,36 +1792,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>320020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>诺安策略精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>80.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1283,36 +1830,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004846</t>
+          <t>008867</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南华瑞盈混合C</t>
+          <t>博时产业新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>72.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1321,6 +1868,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1490,7 +2321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2002,7 +2833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
